--- a/biology/Botanique/Etlingera_elatior/Etlingera_elatior.xlsx
+++ b/biology/Botanique/Etlingera_elatior/Etlingera_elatior.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Etlingera elatior
 La Rose de porcelaine (Etlingera elatior) est une espèce de plantes à fleurs de la famille des Zingiberaceae, originaire de Malaisie. Elle est appelée ginger torch (« torche au gingembre ») dans les pays anglo-saxons et bastón de emperador (« bâton d'empereur ») dans les pays hispanophones.
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée vivace haute d'origine tropicale. Les feuilles et tiges ressemblent à celles du gingembre, elles viennent par touffes. Feuilles et fleurs apparaissent sur des tiges séparées à partir de tubercules souterrains.
 Les tiges couvertes de feuilles de couleur vert foncé peuvent atteindre de 2 à 6 mètres de hauteur selon les régions. La feuille distique à longue gaine foliaire peut mesurer jusqu'à 85 cm de long et 18 cm de large.
-Les fleurs en inflorescences se trouvent sur des pousses généralement sans feuilles[1] qui peuvent atteindre 1,5 m de haut[2]. La fleur est l'une des plus spectaculaires des espèces tropicales, car on la croit artificielle au premier regard, tant elle est cireuse et semble parfaite. Les variétés les plus courantes sont de couleur rouge vif, une autre porte des fleurs roses. Quand sort un bourgeon, un parfum surprenant s'en échappe.
+Les fleurs en inflorescences se trouvent sur des pousses généralement sans feuilles qui peuvent atteindre 1,5 m de haut. La fleur est l'une des plus spectaculaires des espèces tropicales, car on la croit artificielle au premier regard, tant elle est cireuse et semble parfaite. Les variétés les plus courantes sont de couleur rouge vif, une autre porte des fleurs roses. Quand sort un bourgeon, un parfum surprenant s'en échappe.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Habitat et culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Originaire d'Asie du Sud-Est, cette plante demande un sol riche, irrigué et protégé des vents forts.
 </t>
@@ -576,7 +592,9 @@
           <t>Composition, propriétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans des feuilles de E. elatior, trois acides caffeoylquiniques ont été isolés, dont l'acide chlorogénique (CGA) et trois flavonoïdes, la quercitrine, l'isoquercitrine et la catéchine. La teneur en CGA était significativement plus élevée que dans les fleurs de Lonicera japonica (chèvrefeuille japonais), la source commerciale principale. Un protocole de production d'un extrait standardisé d'herbes CGA provenant de feuilles d' E. elatior concentré à 40% a été développé, le CGA commercial des extraits de fleurs de chèvrefeuille a une concentration typique de seulement 25%.
 Les feuilles d’E. elatior ont une activité d'inhibition antioxydante, antibactérienne et tyrosinase la plus élevée parmi les cinq espèces d'’'Etlingera étudiées.
@@ -611,7 +629,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fleurs rose flamboyant se conservent pendant plusieurs jours et sont utilisées dans des arrangements floraux.
 En Malaisie, la fleur porte le nom de bunga kantan, les tiges, les inflorescences, ainsi que les pédoncules de la fleur (les queues à la base des fleurs) sont utilisés hachés dans des soupes Nonya laksa (différents types de soupes avec des nouilles au curry ou du riz).
@@ -650,9 +670,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (26 sept 2011)[4] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (26 sept 2011) :
 Alpinia acrostachya Steud., Nomencl. Bot., ed. 2, 1: 62 (1840).
 Alpinia diracodes Loes. in H.G.A.Engler, Nat. Pflanzenfam. ed. 2, 15a: 614 (1930), nom. illeg.
 Alpinia elatior Jack, Malayan Misc. 2(7): 2 (1822).
